--- a/Data_files/support.xlsx
+++ b/Data_files/support.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -50,9 +50,6 @@
     <t>PI of Core 2/4</t>
   </si>
   <si>
-    <t>K25 – Integrative approach to characterizing gene regulation</t>
-  </si>
-  <si>
     <t>PI</t>
   </si>
   <si>
@@ -80,15 +77,9 @@
     <t>William M. Keck Foundation</t>
   </si>
   <si>
-    <t>Chicago Consortium for Systems Biology --- Core 2: Eukaryotic stress networks</t>
-  </si>
-  <si>
     <t>Consortium co-PI, co-PI of Core 2</t>
   </si>
   <si>
-    <t>Metaknowledge Network --- Measuring scientific impact</t>
-  </si>
-  <si>
     <t>PI of subcontract</t>
   </si>
   <si>
@@ -102,6 +93,15 @@
   </si>
   <si>
     <t>Institution</t>
+  </si>
+  <si>
+    <t>K25 -- Integrative approach to characterizing gene regulation</t>
+  </si>
+  <si>
+    <t>Chicago Consortium for Systems Biology -- Core 2: Eukaryotic stress networks</t>
+  </si>
+  <si>
+    <t>Metaknowledge Network -- Measuring scientific impact</t>
   </si>
 </sst>
 </file>
@@ -448,7 +448,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -471,7 +471,7 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -505,13 +505,13 @@
         <v>2009</v>
       </c>
       <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -525,13 +525,13 @@
         <v>2012</v>
       </c>
       <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -545,13 +545,13 @@
         <v>2012</v>
       </c>
       <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -565,13 +565,13 @@
         <v>2012</v>
       </c>
       <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
         <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
@@ -585,13 +585,13 @@
         <v>2013</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -605,13 +605,13 @@
         <v>2016</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -625,13 +625,13 @@
         <v>2017</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Data_files/support.xlsx
+++ b/Data_files/support.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amaral/PycharmProjects/maintaining_latex_cv/Data_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amaral/Box Sync/CodingProjects/maintaining_latex_cv/Data_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF90E968-4CFB-DE47-8427-C9C11B3CAD68}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9840" yWindow="5180" windowWidth="21400" windowHeight="10780" tabRatio="500"/>
+    <workbookView xWindow="13660" yWindow="4300" windowWidth="21400" windowHeight="10780" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Title</t>
   </si>
@@ -102,12 +103,30 @@
   </si>
   <si>
     <t>Metaknowledge Network -- Measuring scientific impact</t>
+  </si>
+  <si>
+    <t>PI of Modeling Core</t>
+  </si>
+  <si>
+    <t>present</t>
+  </si>
+  <si>
+    <t>Adoption of innovations</t>
+  </si>
+  <si>
+    <t>Leslie and John (Mac) McQuown Gift</t>
+  </si>
+  <si>
+    <t>National Institute of Alergy and Infectious Diseases</t>
+  </si>
+  <si>
+    <t>Successful Clinical Response in Pneumonia Therapy (SCRIPT) Systems Biology Center</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -177,6 +196,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -444,11 +466,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -616,13 +638,14 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
+        <f>A8+1</f>
         <v>7</v>
       </c>
       <c r="B9">
         <v>2014</v>
       </c>
       <c r="C9">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D9" t="s">
         <v>19</v>
@@ -632,6 +655,48 @@
       </c>
       <c r="F9" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <f>A9+1</f>
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2014</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <f>A10+1</f>
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>2018</v>
+      </c>
+      <c r="C11">
+        <v>2023</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
